--- a/VEC.xlsx
+++ b/VEC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaog\Desktop\Compoapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaog\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C8CFB7-53E7-4B1B-9BEA-10AA43523DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1098EDC-0405-4301-B2CC-45C7C59FDE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2120" windowWidth="20990" windowHeight="12190" xr2:uid="{8C1BB72D-93B1-468F-A343-574044F5A950}"/>
+    <workbookView xWindow="1400" yWindow="1400" windowWidth="20990" windowHeight="12190" xr2:uid="{8C1BB72D-93B1-468F-A343-574044F5A950}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADBB69D-071B-46DB-AC83-63EA6512BE66}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -731,7 +731,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
